--- a/artfynd/A 58717-2025 artfynd.xlsx
+++ b/artfynd/A 58717-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1308,6 +1308,5552 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131089675</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>519578</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7144980</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131089703</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>519452</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7145135</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131089715</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>519475</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7145090</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131089716</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>519470</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7145085</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska hack</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131089687</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>519498</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7144669</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131089698</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>519635</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7145132</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131089709</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>519421</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7144974</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131089670</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>519577</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7144892</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131089723</v>
+      </c>
+      <c r="B15" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>519604</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7145132</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131089710</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>519404</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7144957</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131089682</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>519438</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7144768</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131089668</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>519547</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7144839</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131089722</v>
+      </c>
+      <c r="B19" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>519638</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7144922</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131089724</v>
+      </c>
+      <c r="B20" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>519522</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7145171</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131089720</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>519533</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7145202</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131089692</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>519646</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7144913</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131089725</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>519472</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7145174</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131089669</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>519600</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7144842</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131089688</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>519570</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7144764</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131089681</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>519467</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7144795</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131089718</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>519422</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7144878</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131089693</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>519644</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7144912</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131089701</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>519399</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7145326</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131089696</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>519638</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7145026</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131089691</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>519651</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7144890</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131089680</v>
+      </c>
+      <c r="B32" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>519479</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7144862</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131089660</v>
+      </c>
+      <c r="B33" t="n">
+        <v>92530</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>519507</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7145241</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131089674</v>
+      </c>
+      <c r="B34" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>519561</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7144925</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131089671</v>
+      </c>
+      <c r="B35" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>519603</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7144938</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131089726</v>
+      </c>
+      <c r="B36" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>519447</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7144857</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131089717</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>519595</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7144796</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131089695</v>
+      </c>
+      <c r="B38" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>519643</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7145008</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131089712</v>
+      </c>
+      <c r="B39" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>519441</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7144851</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131089708</v>
+      </c>
+      <c r="B40" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>519460</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7145006</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>131089702</v>
+      </c>
+      <c r="B41" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>519473</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7145177</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>131089673</v>
+      </c>
+      <c r="B42" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>519588</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7144937</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>131089683</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>519412</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7144751</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>131089677</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>519571</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7144991</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>131089694</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>519658</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7144947</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>131089721</v>
+      </c>
+      <c r="B46" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>519516</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7145006</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>131089676</v>
+      </c>
+      <c r="B47" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>519626</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7145007</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>131089728</v>
+      </c>
+      <c r="B48" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>519471</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7145102</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>131089706</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>519470</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7145082</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>131089700</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>519538</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7145150</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>131089699</v>
+      </c>
+      <c r="B51" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>519561</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7145133</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>131089679</v>
+      </c>
+      <c r="B52" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>519479</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7144887</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>131089727</v>
+      </c>
+      <c r="B53" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>519579</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7144989</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>131089678</v>
+      </c>
+      <c r="B54" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>519472</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7144903</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>131089705</v>
+      </c>
+      <c r="B55" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>519454</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7145103</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Ringhack färska och något äldre</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>131089719</v>
+      </c>
+      <c r="B56" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>519531</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7145164</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>131089711</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>519399</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7144945</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>131089713</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>519350</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7144788</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>131089689</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>519609</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7144815</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>131089707</v>
+      </c>
+      <c r="B60" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>519463</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7145006</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>131089690</v>
+      </c>
+      <c r="B61" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Lill-Rot-Karltjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>519697</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7144886</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Alanäs</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 58717-2025 artfynd.xlsx
+++ b/artfynd/A 58717-2025 artfynd.xlsx
@@ -1514,10 +1514,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131089715</v>
+        <v>131089716</v>
       </c>
       <c r="B9" t="n">
-        <v>58043</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1525,28 +1525,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1557,10 +1553,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>519475</v>
+        <v>519470</v>
       </c>
       <c r="R9" t="n">
-        <v>7145090</v>
+        <v>7145085</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,6 +1589,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1619,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131089716</v>
+        <v>131089715</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>58043</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1630,24 +1631,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1658,10 +1663,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>519470</v>
+        <v>519475</v>
       </c>
       <c r="R10" t="n">
-        <v>7145085</v>
+        <v>7145090</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,11 +1699,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1725,10 +1725,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131089687</v>
+        <v>131089723</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1736,23 +1736,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1760,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>519498</v>
+        <v>519604</v>
       </c>
       <c r="R11" t="n">
-        <v>7144669</v>
+        <v>7145132</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,11 +1792,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1827,7 +1818,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131089698</v>
+        <v>131089709</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1862,10 +1853,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>519635</v>
+        <v>519421</v>
       </c>
       <c r="R12" t="n">
-        <v>7145132</v>
+        <v>7144974</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1902,7 +1893,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1929,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131089709</v>
+        <v>131089687</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1964,10 +1955,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>519421</v>
+        <v>519498</v>
       </c>
       <c r="R13" t="n">
-        <v>7144974</v>
+        <v>7144669</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2004,7 +1995,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2031,7 +2022,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131089670</v>
+        <v>131089710</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2066,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>519577</v>
+        <v>519404</v>
       </c>
       <c r="R14" t="n">
-        <v>7144892</v>
+        <v>7144957</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2133,10 +2124,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131089723</v>
+        <v>131089698</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2144,19 +2135,23 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2164,7 +2159,7 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>519604</v>
+        <v>519635</v>
       </c>
       <c r="R15" t="n">
         <v>7145132</v>
@@ -2200,6 +2195,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131089710</v>
+        <v>131089670</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>519404</v>
+        <v>519577</v>
       </c>
       <c r="R16" t="n">
-        <v>7144957</v>
+        <v>7144892</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131089722</v>
+        <v>131089724</v>
       </c>
       <c r="B19" t="n">
         <v>91828</v>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>519638</v>
+        <v>519522</v>
       </c>
       <c r="R19" t="n">
-        <v>7144922</v>
+        <v>7145171</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131089724</v>
+        <v>131089722</v>
       </c>
       <c r="B20" t="n">
         <v>91828</v>
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>519522</v>
+        <v>519638</v>
       </c>
       <c r="R20" t="n">
-        <v>7145171</v>
+        <v>7144922</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2917,10 +2917,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131089725</v>
+        <v>131089688</v>
       </c>
       <c r="B23" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2928,19 +2928,23 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -2948,10 +2952,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>519472</v>
+        <v>519570</v>
       </c>
       <c r="R23" t="n">
-        <v>7145174</v>
+        <v>7144764</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2984,6 +2988,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3010,10 +3019,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131089669</v>
+        <v>131089725</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3021,23 +3030,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3045,10 +3050,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>519600</v>
+        <v>519472</v>
       </c>
       <c r="R24" t="n">
-        <v>7144842</v>
+        <v>7145174</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3081,11 +3086,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131089688</v>
+        <v>131089669</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>519570</v>
+        <v>519600</v>
       </c>
       <c r="R25" t="n">
-        <v>7144764</v>
+        <v>7144842</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3413,7 +3413,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131089693</v>
+        <v>131089691</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3448,10 +3448,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>519644</v>
+        <v>519651</v>
       </c>
       <c r="R28" t="n">
-        <v>7144912</v>
+        <v>7144890</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3719,7 +3719,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131089691</v>
+        <v>131089693</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>519651</v>
+        <v>519644</v>
       </c>
       <c r="R31" t="n">
-        <v>7144890</v>
+        <v>7144912</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3821,32 +3821,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131089680</v>
+        <v>131089660</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>92530</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>519479</v>
+        <v>519507</v>
       </c>
       <c r="R32" t="n">
-        <v>7144862</v>
+        <v>7145241</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3892,11 +3892,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3923,32 +3918,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131089660</v>
+        <v>131089674</v>
       </c>
       <c r="B33" t="n">
-        <v>92530</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3958,10 +3953,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>519507</v>
+        <v>519561</v>
       </c>
       <c r="R33" t="n">
-        <v>7145241</v>
+        <v>7144925</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3994,6 +3989,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4020,7 +4020,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131089674</v>
+        <v>131089671</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>519561</v>
+        <v>519603</v>
       </c>
       <c r="R34" t="n">
-        <v>7144925</v>
+        <v>7144938</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131089671</v>
+        <v>131089680</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4157,10 +4157,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>519603</v>
+        <v>519479</v>
       </c>
       <c r="R35" t="n">
-        <v>7144938</v>
+        <v>7144862</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4224,10 +4224,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131089726</v>
+        <v>131089717</v>
       </c>
       <c r="B36" t="n">
-        <v>91828</v>
+        <v>80348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4235,19 +4235,23 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4255,10 +4259,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>519447</v>
+        <v>519595</v>
       </c>
       <c r="R36" t="n">
-        <v>7144857</v>
+        <v>7144796</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4317,10 +4321,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131089717</v>
+        <v>131089695</v>
       </c>
       <c r="B37" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4328,21 +4332,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4352,10 +4356,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>519595</v>
+        <v>519643</v>
       </c>
       <c r="R37" t="n">
-        <v>7144796</v>
+        <v>7145008</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4388,6 +4392,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4414,10 +4423,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131089695</v>
+        <v>131089726</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4425,23 +4434,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4449,10 +4454,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>519643</v>
+        <v>519447</v>
       </c>
       <c r="R38" t="n">
-        <v>7145008</v>
+        <v>7144857</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4485,11 +4490,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4618,7 +4618,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131089708</v>
+        <v>131089702</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4647,16 +4647,24 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>519460</v>
+        <v>519473</v>
       </c>
       <c r="R40" t="n">
-        <v>7145006</v>
+        <v>7145177</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4693,7 +4701,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4720,7 +4728,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131089702</v>
+        <v>131089708</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4749,24 +4757,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>519473</v>
+        <v>519460</v>
       </c>
       <c r="R41" t="n">
-        <v>7145177</v>
+        <v>7145006</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4932,7 +4932,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131089683</v>
+        <v>131089677</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>519412</v>
+        <v>519571</v>
       </c>
       <c r="R43" t="n">
-        <v>7144751</v>
+        <v>7144991</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5034,7 +5034,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131089677</v>
+        <v>131089683</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -5069,10 +5069,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>519571</v>
+        <v>519412</v>
       </c>
       <c r="R44" t="n">
-        <v>7144991</v>
+        <v>7144751</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5136,10 +5136,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131089694</v>
+        <v>131089721</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5147,23 +5147,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
@@ -5171,10 +5167,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>519658</v>
+        <v>519516</v>
       </c>
       <c r="R45" t="n">
-        <v>7144947</v>
+        <v>7145006</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5207,11 +5203,6 @@
       <c r="AA45" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5238,10 +5229,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131089721</v>
+        <v>131089694</v>
       </c>
       <c r="B46" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5249,19 +5240,23 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
@@ -5269,10 +5264,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>519516</v>
+        <v>519658</v>
       </c>
       <c r="R46" t="n">
-        <v>7145006</v>
+        <v>7144947</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5305,6 +5300,11 @@
       <c r="AA46" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5433,10 +5433,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131089728</v>
+        <v>131089706</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5444,21 +5444,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>519471</v>
+        <v>519470</v>
       </c>
       <c r="R48" t="n">
-        <v>7145102</v>
+        <v>7145082</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5535,10 +5535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131089706</v>
+        <v>131089728</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5546,21 +5546,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>519470</v>
+        <v>519471</v>
       </c>
       <c r="R49" t="n">
-        <v>7145082</v>
+        <v>7145102</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5637,7 +5637,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131089700</v>
+        <v>131089679</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -5672,10 +5672,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>519538</v>
+        <v>519479</v>
       </c>
       <c r="R50" t="n">
-        <v>7145150</v>
+        <v>7144887</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131089699</v>
+        <v>131089700</v>
       </c>
       <c r="B51" t="n">
         <v>57884</v>
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>519561</v>
+        <v>519538</v>
       </c>
       <c r="R51" t="n">
-        <v>7145133</v>
+        <v>7145150</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5841,7 +5841,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131089679</v>
+        <v>131089699</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>519479</v>
+        <v>519561</v>
       </c>
       <c r="R52" t="n">
-        <v>7144887</v>
+        <v>7145133</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6249,10 +6249,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131089719</v>
+        <v>131089707</v>
       </c>
       <c r="B56" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6260,21 +6260,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>519531</v>
+        <v>519463</v>
       </c>
       <c r="R56" t="n">
-        <v>7145164</v>
+        <v>7145006</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6320,6 +6320,11 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6346,7 +6351,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131089711</v>
+        <v>131089689</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6381,10 +6386,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>519399</v>
+        <v>519609</v>
       </c>
       <c r="R57" t="n">
-        <v>7144945</v>
+        <v>7144815</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6421,7 +6426,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6550,10 +6555,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131089689</v>
+        <v>131089719</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6561,21 +6566,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6585,10 +6590,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>519609</v>
+        <v>519531</v>
       </c>
       <c r="R59" t="n">
-        <v>7144815</v>
+        <v>7145164</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6621,11 +6626,6 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6652,7 +6652,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131089707</v>
+        <v>131089711</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6687,10 +6687,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>519463</v>
+        <v>519399</v>
       </c>
       <c r="R60" t="n">
-        <v>7145006</v>
+        <v>7144945</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>

--- a/artfynd/A 58717-2025 artfynd.xlsx
+++ b/artfynd/A 58717-2025 artfynd.xlsx
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131089703</v>
+        <v>131089716</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,16 +1423,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1441,16 +1441,20 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>519452</v>
+        <v>519470</v>
       </c>
       <c r="R8" t="n">
-        <v>7145135</v>
+        <v>7145085</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1514,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131089716</v>
+        <v>131089703</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1525,16 +1529,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1543,20 +1547,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>519470</v>
+        <v>519452</v>
       </c>
       <c r="R9" t="n">
-        <v>7145085</v>
+        <v>7145135</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Färska hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131089687</v>
+        <v>131089710</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>519498</v>
+        <v>519404</v>
       </c>
       <c r="R13" t="n">
-        <v>7144669</v>
+        <v>7144957</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131089710</v>
+        <v>131089687</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>519404</v>
+        <v>519498</v>
       </c>
       <c r="R14" t="n">
-        <v>7144957</v>
+        <v>7144669</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2815,10 +2815,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131089692</v>
+        <v>131089725</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2826,23 +2826,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2850,10 +2846,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>519646</v>
+        <v>519472</v>
       </c>
       <c r="R22" t="n">
-        <v>7144913</v>
+        <v>7145174</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2886,11 +2882,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2917,7 +2908,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131089688</v>
+        <v>131089692</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2952,10 +2943,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>519570</v>
+        <v>519646</v>
       </c>
       <c r="R23" t="n">
-        <v>7144764</v>
+        <v>7144913</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3019,10 +3010,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131089725</v>
+        <v>131089688</v>
       </c>
       <c r="B24" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3030,19 +3021,23 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3050,10 +3045,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>519472</v>
+        <v>519570</v>
       </c>
       <c r="R24" t="n">
-        <v>7145174</v>
+        <v>7144764</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3086,6 +3081,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3214,10 +3214,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131089681</v>
+        <v>131089718</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3225,21 +3225,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>519467</v>
+        <v>519422</v>
       </c>
       <c r="R26" t="n">
-        <v>7144795</v>
+        <v>7144878</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3285,11 +3285,6 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3316,10 +3311,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131089718</v>
+        <v>131089681</v>
       </c>
       <c r="B27" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3327,21 +3322,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3351,10 +3346,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>519422</v>
+        <v>519467</v>
       </c>
       <c r="R27" t="n">
-        <v>7144878</v>
+        <v>7144795</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3387,6 +3382,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3918,7 +3918,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131089674</v>
+        <v>131089671</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>519561</v>
+        <v>519603</v>
       </c>
       <c r="R33" t="n">
-        <v>7144925</v>
+        <v>7144938</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4020,7 +4020,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131089671</v>
+        <v>131089680</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>519603</v>
+        <v>519479</v>
       </c>
       <c r="R34" t="n">
-        <v>7144938</v>
+        <v>7144862</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131089680</v>
+        <v>131089674</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4157,10 +4157,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>519479</v>
+        <v>519561</v>
       </c>
       <c r="R35" t="n">
-        <v>7144862</v>
+        <v>7144925</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4321,10 +4321,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131089695</v>
+        <v>131089726</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4332,23 +4332,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4356,10 +4352,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>519643</v>
+        <v>519447</v>
       </c>
       <c r="R37" t="n">
-        <v>7145008</v>
+        <v>7144857</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4392,11 +4388,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4423,10 +4414,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131089726</v>
+        <v>131089695</v>
       </c>
       <c r="B38" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4434,19 +4425,23 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4454,10 +4449,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>519447</v>
+        <v>519643</v>
       </c>
       <c r="R38" t="n">
-        <v>7144857</v>
+        <v>7145008</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4490,6 +4485,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4618,7 +4618,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131089702</v>
+        <v>131089708</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4647,24 +4647,16 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>519473</v>
+        <v>519460</v>
       </c>
       <c r="R40" t="n">
-        <v>7145177</v>
+        <v>7145006</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4701,7 +4693,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4728,7 +4720,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131089708</v>
+        <v>131089702</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4757,16 +4749,24 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>519460</v>
+        <v>519473</v>
       </c>
       <c r="R41" t="n">
-        <v>7145006</v>
+        <v>7145177</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5433,10 +5433,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131089706</v>
+        <v>131089728</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5444,21 +5444,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>519470</v>
+        <v>519471</v>
       </c>
       <c r="R48" t="n">
-        <v>7145082</v>
+        <v>7145102</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5535,10 +5535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131089728</v>
+        <v>131089706</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5546,21 +5546,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>519471</v>
+        <v>519470</v>
       </c>
       <c r="R49" t="n">
-        <v>7145102</v>
+        <v>7145082</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5637,10 +5637,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131089679</v>
+        <v>131089727</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5648,21 +5648,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5672,10 +5672,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>519479</v>
+        <v>519579</v>
       </c>
       <c r="R50" t="n">
-        <v>7144887</v>
+        <v>7144989</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5943,10 +5943,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131089727</v>
+        <v>131089678</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5954,21 +5954,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5978,10 +5978,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>519579</v>
+        <v>519472</v>
       </c>
       <c r="R53" t="n">
-        <v>7144989</v>
+        <v>7144903</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6045,7 +6045,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131089678</v>
+        <v>131089705</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>519472</v>
+        <v>519454</v>
       </c>
       <c r="R54" t="n">
-        <v>7144903</v>
+        <v>7145103</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och något äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131089705</v>
+        <v>131089679</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6182,10 +6182,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>519454</v>
+        <v>519479</v>
       </c>
       <c r="R55" t="n">
-        <v>7145103</v>
+        <v>7144887</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Ringhack färska och något äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6249,10 +6249,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131089707</v>
+        <v>131089719</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6260,21 +6260,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>519463</v>
+        <v>519531</v>
       </c>
       <c r="R56" t="n">
-        <v>7145006</v>
+        <v>7145164</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6320,11 +6320,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6351,7 +6346,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131089689</v>
+        <v>131089713</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6386,10 +6381,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>519609</v>
+        <v>519350</v>
       </c>
       <c r="R57" t="n">
-        <v>7144815</v>
+        <v>7144788</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6426,7 +6421,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6453,7 +6448,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131089713</v>
+        <v>131089711</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6488,10 +6483,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>519350</v>
+        <v>519399</v>
       </c>
       <c r="R58" t="n">
-        <v>7144788</v>
+        <v>7144945</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6555,10 +6550,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131089719</v>
+        <v>131089707</v>
       </c>
       <c r="B59" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6566,21 +6561,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6590,10 +6585,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>519531</v>
+        <v>519463</v>
       </c>
       <c r="R59" t="n">
-        <v>7145164</v>
+        <v>7145006</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6626,6 +6621,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6652,7 +6652,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131089711</v>
+        <v>131089689</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6687,10 +6687,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>519399</v>
+        <v>519609</v>
       </c>
       <c r="R60" t="n">
-        <v>7144945</v>
+        <v>7144815</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 58717-2025 artfynd.xlsx
+++ b/artfynd/A 58717-2025 artfynd.xlsx
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131089716</v>
+        <v>131089715</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>58043</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,24 +1423,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1451,10 +1455,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>519470</v>
+        <v>519475</v>
       </c>
       <c r="R8" t="n">
-        <v>7145085</v>
+        <v>7145090</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,11 +1491,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,10 +1517,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131089703</v>
+        <v>131089716</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1529,16 +1528,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1547,16 +1546,20 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>519452</v>
+        <v>519470</v>
       </c>
       <c r="R9" t="n">
-        <v>7145135</v>
+        <v>7145085</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1620,10 +1623,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131089715</v>
+        <v>131089703</v>
       </c>
       <c r="B10" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1631,42 +1634,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>519475</v>
+        <v>519452</v>
       </c>
       <c r="R10" t="n">
-        <v>7145090</v>
+        <v>7145135</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1699,6 +1694,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1818,7 +1818,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131089709</v>
+        <v>131089687</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>519421</v>
+        <v>519498</v>
       </c>
       <c r="R12" t="n">
-        <v>7144974</v>
+        <v>7144669</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131089687</v>
+        <v>131089698</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>519498</v>
+        <v>519635</v>
       </c>
       <c r="R14" t="n">
-        <v>7144669</v>
+        <v>7145132</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2124,7 +2124,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131089698</v>
+        <v>131089670</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>519635</v>
+        <v>519577</v>
       </c>
       <c r="R15" t="n">
-        <v>7145132</v>
+        <v>7144892</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131089670</v>
+        <v>131089709</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>519577</v>
+        <v>519421</v>
       </c>
       <c r="R16" t="n">
-        <v>7144892</v>
+        <v>7144974</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131089717</v>
+        <v>131089726</v>
       </c>
       <c r="B36" t="n">
-        <v>80348</v>
+        <v>91828</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4235,23 +4235,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4259,10 +4255,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>519595</v>
+        <v>519447</v>
       </c>
       <c r="R36" t="n">
-        <v>7144796</v>
+        <v>7144857</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4321,10 +4317,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131089726</v>
+        <v>131089695</v>
       </c>
       <c r="B37" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4332,19 +4328,23 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4352,10 +4352,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>519447</v>
+        <v>519643</v>
       </c>
       <c r="R37" t="n">
-        <v>7144857</v>
+        <v>7145008</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4388,6 +4388,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4414,10 +4419,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131089695</v>
+        <v>131089717</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4425,21 +4430,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4449,10 +4454,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>519643</v>
+        <v>519595</v>
       </c>
       <c r="R38" t="n">
-        <v>7145008</v>
+        <v>7144796</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4485,11 +4490,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-08</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4618,7 +4618,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131089708</v>
+        <v>131089702</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4647,16 +4647,24 @@
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>519460</v>
+        <v>519473</v>
       </c>
       <c r="R40" t="n">
-        <v>7145006</v>
+        <v>7145177</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4693,7 +4701,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4720,7 +4728,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131089702</v>
+        <v>131089708</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4749,24 +4757,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Lill-Rot-Karltjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>519473</v>
+        <v>519460</v>
       </c>
       <c r="R41" t="n">
-        <v>7145177</v>
+        <v>7145006</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Bohål ca 3m upp i grantickerötad granhögstubbe</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6346,7 +6346,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131089713</v>
+        <v>131089707</v>
       </c>
       <c r="B57" t="n">
         <v>57884</v>
@@ -6381,10 +6381,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>519350</v>
+        <v>519463</v>
       </c>
       <c r="R57" t="n">
-        <v>7144788</v>
+        <v>7145006</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131089711</v>
+        <v>131089689</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>519399</v>
+        <v>519609</v>
       </c>
       <c r="R58" t="n">
-        <v>7144945</v>
+        <v>7144815</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6550,7 +6550,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131089707</v>
+        <v>131089713</v>
       </c>
       <c r="B59" t="n">
         <v>57884</v>
@@ -6585,10 +6585,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>519463</v>
+        <v>519350</v>
       </c>
       <c r="R59" t="n">
-        <v>7145006</v>
+        <v>7144788</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131089689</v>
+        <v>131089711</v>
       </c>
       <c r="B60" t="n">
         <v>57884</v>
@@ -6687,10 +6687,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>519609</v>
+        <v>519399</v>
       </c>
       <c r="R60" t="n">
-        <v>7144815</v>
+        <v>7144945</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
